--- a/biology/Médecine/Johannes_Oosterdijk_Schacht/Johannes_Oosterdijk_Schacht.xlsx
+++ b/biology/Médecine/Johannes_Oosterdijk_Schacht/Johannes_Oosterdijk_Schacht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Oosterdijk Schacht, né le 26 octobre 1704 à Leyde, mort le 18 août 1792 (à 87 ans) à Utrecht, est un médecin néerlandais.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Hermannus Oosterdijk Schacht, médecin.
-Il soutient sa thèse de médecine et sa thèse d'« astronomico-physique[1] » à l'université de Leyde le 26 septembre 1726.
-En octobre de l'année suivante il succède à Ruardus Andala[2] comme professeur de philosophie à l'université de Franeker. Sa leçon inaugurale s'intitule De arcto, quo philosophia cum omnibus, praesertim medicis, scientiis nectitur vinculo.
+Il soutient sa thèse de médecine et sa thèse d'« astronomico-physique » à l'université de Leyde le 26 septembre 1726.
+En octobre de l'année suivante il succède à Ruardus Andala comme professeur de philosophie à l'université de Franeker. Sa leçon inaugurale s'intitule De arcto, quo philosophia cum omnibus, praesertim medicis, scientiis nectitur vinculo.
 Le 13 juin de l'année suivante, il devient professeur de médecine à l'université d'Utrecht ; sa première leçon est  Qua senile fatum inevitabili necessitate ex humani corporis mechanismo sequi, demonstratur. En 1732 et en 1752, il est recteur de l'université d'Utrecht.
 Sa dernière publication connue, De arcanis medicorum non celandis, est publiée à Utrecht en 1753. Il devient en 1790 professeur émérite et meurt deux ans plus tard.
-Schacht était aussi philosophe, médecin et poète[3]. Sa bibliothèque a été dispersée en 1793 à Utrecht[4].
+Schacht était aussi philosophe, médecin et poète. Sa bibliothèque a été dispersée en 1793 à Utrecht.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La plupart de ses œuvres sont en latin.
 De secretione animali sur Google Livres Leyde, 1726 — Thèse de médecine
